--- a/src/private/templates/auditor_report_mn.xlsx
+++ b/src/private/templates/auditor_report_mn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batamar/Documents/works/ot-backend/src/private/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470E7867-4E41-DF4B-9927-C74A2F96FB29}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7AAD9C-E51B-1144-8D54-83F33B51F718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="32300" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,13 +112,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -151,6 +144,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -281,39 +281,72 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,41 +363,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -428,50 +428,6 @@
         <a:xfrm>
           <a:off x="9208172" y="119944"/>
           <a:ext cx="775439" cy="481382"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>318172</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>601326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D778649-A89C-4A47-BD20-4E08A0D77C2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10020972" y="119944"/>
-          <a:ext cx="837528" cy="481382"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,7 +763,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -823,200 +779,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E2:J2"/>
@@ -1033,6 +980,15 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
